--- a/names_bot.xlsx
+++ b/names_bot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>сhat_id</t>
   </si>
@@ -25,13 +25,16 @@
     <t>username</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
+    <t>Андрей</t>
+  </si>
+  <si>
     <t>@kuzmin_andre</t>
+  </si>
+  <si>
+    <t>kuzmin_andre</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,14 +413,28 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>289598971</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/names_bot.xlsx
+++ b/names_bot.xlsx
@@ -28,7 +28,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>Андрей</t>
+    <t>Андрейй</t>
   </si>
   <si>
     <t>@kuzmin_andre</t>

--- a/names_bot.xlsx
+++ b/names_bot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>сhat_id</t>
   </si>
@@ -28,13 +28,19 @@
     <t>test</t>
   </si>
   <si>
-    <t>Андрейй</t>
+    <t>Господин Разработчик</t>
+  </si>
+  <si>
+    <t>Никита</t>
   </si>
   <si>
     <t>@kuzmin_andre</t>
   </si>
   <si>
     <t>kuzmin_andre</t>
+  </si>
+  <si>
+    <t>NikVarf</t>
   </si>
 </sst>
 </file>
@@ -392,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,7 +440,21 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>108355031</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/names_bot.xlsx
+++ b/names_bot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>сhat_id</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Никита</t>
   </si>
   <si>
+    <t>Таня</t>
+  </si>
+  <si>
     <t>@kuzmin_andre</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t>NikVarf</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -454,7 +460,21 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>304602514</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/names_bot.xlsx
+++ b/names_bot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>сhat_id</t>
   </si>
@@ -28,13 +28,16 @@
     <t>test</t>
   </si>
   <si>
-    <t>Господин Разработчик</t>
+    <t>Андрей</t>
   </si>
   <si>
     <t>Никита</t>
   </si>
   <si>
     <t>Таня</t>
+  </si>
+  <si>
+    <t>Амир</t>
   </si>
   <si>
     <t>@kuzmin_andre</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,7 +463,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,7 +477,21 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>412305283</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/names_bot.xlsx
+++ b/names_bot.xlsx
@@ -28,7 +28,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>Андрей</t>
+    <t>АНА</t>
   </si>
   <si>
     <t>Никита</t>

--- a/names_bot.xlsx
+++ b/names_bot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>сhat_id</t>
   </si>
@@ -28,28 +28,31 @@
     <t>test</t>
   </si>
   <si>
-    <t>АНА</t>
-  </si>
-  <si>
     <t>Никита</t>
   </si>
   <si>
-    <t>Таня</t>
-  </si>
-  <si>
-    <t>Амир</t>
+    <t>андр</t>
+  </si>
+  <si>
+    <t>Петя</t>
+  </si>
+  <si>
+    <t>Лев</t>
   </si>
   <si>
     <t>@kuzmin_andre</t>
   </si>
   <si>
+    <t>NikVarf</t>
+  </si>
+  <si>
     <t>kuzmin_andre</t>
   </si>
   <si>
-    <t>NikVarf</t>
-  </si>
-  <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>ikramanop</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>289598971</v>
+        <v>108355031</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -457,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>108355031</v>
+        <v>289598971</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -471,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>304602514</v>
+        <v>429556487</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -485,13 +488,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>412305283</v>
+        <v>248544030</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
